--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail9 Features.xlsx
@@ -5229,7 +5229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5240,29 +5240,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5283,115 +5281,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5408,72 +5396,66 @@
         <v>2.547378880655504e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.3424965984084721</v>
+        <v>1.484925890968507e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.718627611091239</v>
+        <v>3.693432089461069e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.484925890968507e-06</v>
+        <v>0.06980124251049075</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.693432089461069e-06</v>
+        <v>0.2792840883337412</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.06980124251049075</v>
+        <v>0.08277127336970944</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2792840883337412</v>
+        <v>1.745757559529806</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08277127336970944</v>
+        <v>1.77281119405454</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.673842501907175</v>
+        <v>4.542730618355208</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.77281119405454</v>
+        <v>2.265687658910031e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.542730618355208</v>
+        <v>96656704.29100482</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.265687658910031e-15</v>
+        <v>1.195735271312159e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>96656704.29100482</v>
+        <v>21.16722883324109</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.195735271312159e-06</v>
+        <v>0.0001253654694525353</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>21.16722883324109</v>
+        <v>7.468719649747118</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001253654694525353</v>
+        <v>1.400299943810985</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.468719649747118</v>
+        <v>0.006993108184930073</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.400299943810985</v>
+        <v>3.033734377235812</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006993108184930073</v>
+        <v>0.9533934846212672</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.033734377235812</v>
+        <v>1.720248788534211</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9533934846212672</v>
+        <v>24</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.720248788534211</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2443879925902778</v>
       </c>
     </row>
@@ -5488,72 +5470,66 @@
         <v>2.264838941669009e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.3514881227750291</v>
+        <v>1.199487107665738e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.1963969919320872</v>
+        <v>3.709071674949962e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.199487107665738e-06</v>
+        <v>0.06032170547164165</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.709071674949962e-06</v>
+        <v>0.2740051484895695</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.06032170547164165</v>
+        <v>0.07863212114975067</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2740051484895695</v>
+        <v>1.607922039244259</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07863212114975067</v>
+        <v>1.507433434708055</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.529310658995863</v>
+        <v>6.267497107794795</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.507433434708055</v>
+        <v>4.634674590974378e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.267497107794795</v>
+        <v>50130044.41972443</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.634674590974378e-15</v>
+        <v>2.102439002392834e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>50130044.41972443</v>
+        <v>11.64703621375161</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.102439002392834e-06</v>
+        <v>0.0001252600589377534</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.64703621375161</v>
+        <v>7.757942615791705</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001252600589377534</v>
+        <v>1.517368761008746</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.757942615791705</v>
+        <v>0.007538861026091796</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.517368761008746</v>
+        <v>3.056897732454138</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.007538861026091796</v>
+        <v>0.9449478041283395</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.056897732454138</v>
+        <v>1.811224825481072</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9449478041283395</v>
+        <v>18</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.811224825481072</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.249750933743081</v>
       </c>
     </row>
@@ -5568,72 +5544,66 @@
         <v>2.101388845429225e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.775659609550484</v>
+        <v>9.578839493271549e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.4823402623259061</v>
+        <v>3.720820308469391e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.578839493271549e-07</v>
+        <v>0.04695507147019476</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.720820308469391e-06</v>
+        <v>0.2593359394608946</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.04695507147019476</v>
+        <v>0.06938289988478262</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2593359394608946</v>
+        <v>1.574134008901893</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06938289988478262</v>
+        <v>1.471478948956069</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.493700940812328</v>
+        <v>4.372617317237171</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.471478948956069</v>
+        <v>1.070731745060669e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.372617317237171</v>
+        <v>21885667.37221308</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.070731745060669e-14</v>
+        <v>4.751263679542046e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>21885667.37221308</v>
+        <v>5.128616999019827</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.751263679542046e-06</v>
+        <v>0.0001375802150908425</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.128616999019827</v>
+        <v>7.071834126105174</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001375802150908425</v>
+        <v>2.696573615192165</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.071834126105174</v>
+        <v>0.006880501836138367</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>2.696573615192165</v>
+        <v>3.265211839984205</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.006880501836138367</v>
+        <v>0.9441997199068</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.265211839984205</v>
+        <v>1.870040053719439</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9441997199068</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.870040053719439</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2008329763511629</v>
       </c>
     </row>
@@ -5648,72 +5618,66 @@
         <v>2.025264185379884e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.9166750667618702</v>
+        <v>7.340615774015658e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.6124007648685126</v>
+        <v>3.728753016541128e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.340615774015658e-07</v>
+        <v>0.02968302286663535</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.728753016541128e-06</v>
+        <v>0.2314366867397188</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.02968302286663535</v>
+        <v>0.0543667875139088</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2314366867397188</v>
+        <v>1.531865722617693</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0543667875139088</v>
+        <v>1.458209677929251</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.446296433329636</v>
+        <v>4.133351218383008</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.458209677929251</v>
+        <v>1.198281902810247e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.133351218383008</v>
+        <v>20127568.61418811</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.198281902810247e-14</v>
+        <v>5.087874428478756e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>20127568.61418811</v>
+        <v>4.854467881357313</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.087874428478756e-06</v>
+        <v>0.000119356522328392</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4.854467881357313</v>
+        <v>7.245163644256525</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.000119356522328392</v>
+        <v>1.625667751251702</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.245163644256525</v>
+        <v>0.006265309862942251</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.625667751251702</v>
+        <v>3.162237785706373</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006265309862942251</v>
+        <v>0.942326012529037</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.162237785706373</v>
+        <v>1.905822441553113</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.942326012529037</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.905822441553113</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.198352021748912</v>
       </c>
     </row>
@@ -5728,72 +5692,66 @@
         <v>2.00432898186233e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.9104728047916603</v>
+        <v>5.995074178011319e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.6218861315970186</v>
+        <v>3.732835222522163e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.995074178011319e-07</v>
+        <v>0.01109525250729151</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.732835222522163e-06</v>
+        <v>0.1911625792466543</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01109525250729151</v>
+        <v>0.03659882651703693</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1911625792466543</v>
+        <v>1.515292140412674</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03659882651703693</v>
+        <v>1.430757333406287</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.429937333421487</v>
+        <v>4.148382681038194</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.430757333406287</v>
+        <v>1.189613803273728e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.148382681038194</v>
+        <v>20683974.1371554</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.189613803273728e-14</v>
+        <v>4.960293442395346e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>20683974.1371554</v>
+        <v>5.089486501625456</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.960293442395346e-06</v>
+        <v>0.000122552950025692</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>5.089486501625456</v>
+        <v>7.987124912506115</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000122552950025692</v>
+        <v>1.195807940126197</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.987124912506115</v>
+        <v>0.007818163037719322</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.195807940126197</v>
+        <v>2.929579821225632</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007818163037719322</v>
+        <v>0.9406673139676706</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.929579821225632</v>
+        <v>1.887138182150152</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9406673139676706</v>
+        <v>14</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.887138182150152</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2039255920056073</v>
       </c>
     </row>
@@ -5808,72 +5766,66 @@
         <v>2.003063366378334e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.9046539846983522</v>
+        <v>5.995074178011319e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.6256900282352231</v>
+        <v>3.733352643568208e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.995074178011319e-07</v>
+        <v>-0.00510900855775472</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.733352643568208e-06</v>
+        <v>0.1499507624360986</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.00510900855775472</v>
+        <v>0.02247116901516926</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1499507624360986</v>
+        <v>1.514890171822654</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02247116901516926</v>
+        <v>1.422842644759986</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.429132671203412</v>
+        <v>4.158725658959396</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.422842644759986</v>
+        <v>1.183703892515477e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.158725658959396</v>
+        <v>21048885.29031603</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.183703892515477e-14</v>
+        <v>4.891814898320027e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>21048885.29031603</v>
+        <v>5.244466051355025</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.891814898320027e-06</v>
+        <v>0.0001265982056178957</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.244466051355025</v>
+        <v>7.984109156079993</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001265982056178957</v>
+        <v>1.291969054853147</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.984109156079993</v>
+        <v>0.00807012909077111</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.291969054853147</v>
+        <v>2.902285677308537</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.00807012909077111</v>
+        <v>0.9401141268832033</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.902285677308537</v>
+        <v>1.886588616087012</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9401141268832033</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.886588616087012</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2012584149566305</v>
       </c>
     </row>
@@ -6250,7 +6202,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.203049127471716</v>
+        <v>1.184992158465987</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.49386450236512</v>
@@ -6339,7 +6291,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.204406481954663</v>
+        <v>1.185585045482642</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.503575621234446</v>
@@ -6428,7 +6380,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.216601056688946</v>
+        <v>1.194016844673044</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.49301965314951</v>
@@ -6517,7 +6469,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.314174238507997</v>
+        <v>1.290919002947863</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.55569981021305</v>
@@ -6606,7 +6558,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.368253779677819</v>
+        <v>1.349217891413028</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.589808850409243</v>
@@ -6695,7 +6647,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.378872692175006</v>
+        <v>1.355283825650998</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.517950359569147</v>
@@ -6784,7 +6736,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.4043703855788</v>
+        <v>1.381147171934769</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.269527833492947</v>
@@ -6873,7 +6825,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.392049201741592</v>
+        <v>1.370269890143905</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.432104125601069</v>
@@ -6962,7 +6914,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.396818877358034</v>
+        <v>1.373510863448146</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.63846173598804</v>
@@ -7051,7 +7003,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.39841694886008</v>
+        <v>1.371804102474704</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.448944124768416</v>
@@ -7140,7 +7092,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.395655198004685</v>
+        <v>1.37462006462863</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.501320267300508</v>
@@ -7229,7 +7181,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.38681081841953</v>
+        <v>1.363013872661931</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.621940009538777</v>
@@ -7318,7 +7270,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.383412327702917</v>
+        <v>1.359681165064748</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.743949792122606</v>
@@ -7407,7 +7359,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.398794275917728</v>
+        <v>1.375424085567182</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.424014614629563</v>
@@ -7496,7 +7448,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.395185409822074</v>
+        <v>1.371180654325603</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.579710290359824</v>
@@ -7585,7 +7537,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.397938436310495</v>
+        <v>1.374313306320549</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.800240885207539</v>
@@ -7674,7 +7626,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.405408449401788</v>
+        <v>1.381877378753376</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.590026101436159</v>
@@ -7763,7 +7715,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.418467035859273</v>
+        <v>1.390906999355254</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.67356048719185</v>
@@ -7852,7 +7804,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.414057581948455</v>
+        <v>1.380569645005764</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.594464490826446</v>
@@ -7941,7 +7893,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.399289850311167</v>
+        <v>1.368161558191329</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.643931147763042</v>
@@ -8030,7 +7982,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.41803720890897</v>
+        <v>1.388283820476208</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.415305926891062</v>
@@ -8119,7 +8071,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.408600292837391</v>
+        <v>1.3805069572625</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.645353821842564</v>
@@ -8208,7 +8160,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.411876338638264</v>
+        <v>1.384230101969652</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.535386706447861</v>
@@ -8297,7 +8249,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.415184623560467</v>
+        <v>1.385447341067872</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.779528847933733</v>
@@ -8386,7 +8338,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.436795509482077</v>
+        <v>1.40048405099025</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.77340625152726</v>
@@ -8475,7 +8427,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.443283262939902</v>
+        <v>1.407535533654759</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.443490932228359</v>
@@ -8564,7 +8516,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.444587088648494</v>
+        <v>1.410157996260005</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.881979224164761</v>
@@ -8653,7 +8605,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.442569218436265</v>
+        <v>1.417751969760426</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.521226996656505</v>
@@ -8742,7 +8694,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.437936317054672</v>
+        <v>1.412316928133249</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.531899701792842</v>
@@ -8831,7 +8783,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.449896767741044</v>
+        <v>1.42714831231128</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.732840095174597</v>
@@ -8920,7 +8872,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.457634215407077</v>
+        <v>1.433729421624344</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.825070027551346</v>
@@ -9009,7 +8961,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.462902650361902</v>
+        <v>1.438759031006211</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.673198424323099</v>
@@ -9098,7 +9050,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.462636837164885</v>
+        <v>1.44290924373877</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.655418892464724</v>
@@ -9187,7 +9139,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.471709336857691</v>
+        <v>1.450325084450627</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.725792013000005</v>
@@ -9276,7 +9228,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.462966792349688</v>
+        <v>1.455179230162708</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.273063566941081</v>
@@ -9365,7 +9317,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.361504537572979</v>
+        <v>1.365572876285289</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.858336021576391</v>
@@ -9454,7 +9406,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.380698007322086</v>
+        <v>1.387907790855778</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.841803880451208</v>
@@ -9543,7 +9495,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.394044914512517</v>
+        <v>1.402913417176568</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.862263082961492</v>
@@ -9632,7 +9584,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.376845141659203</v>
+        <v>1.388686553402604</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.838620526023937</v>
@@ -9721,7 +9673,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.366927868434814</v>
+        <v>1.380758256456164</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.862395360219586</v>
@@ -9810,7 +9762,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.36679536408885</v>
+        <v>1.380740266038089</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.859801956918587</v>
@@ -9899,7 +9851,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.37546966294419</v>
+        <v>1.389984862457502</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.867668374351815</v>
@@ -9988,7 +9940,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.382112420595698</v>
+        <v>1.394669050534375</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.86222114667431</v>
@@ -10077,7 +10029,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.407597801601596</v>
+        <v>1.425643360037636</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.92884003106759</v>
@@ -10166,7 +10118,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.408550322712309</v>
+        <v>1.432753889479898</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.956217570019477</v>
@@ -10255,7 +10207,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.416998807126294</v>
+        <v>1.440303877005314</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.954334870250555</v>
@@ -10344,7 +10296,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.408282953948212</v>
+        <v>1.428881727148777</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.977087760000367</v>
@@ -10433,7 +10385,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.410644486157805</v>
+        <v>1.428365493273631</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.966747730421625</v>
@@ -10522,7 +10474,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.422783440345571</v>
+        <v>1.444575981444387</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.968584909017686</v>
@@ -10611,7 +10563,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.423038615428164</v>
+        <v>1.439555616406798</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.817639277282763</v>
@@ -10700,7 +10652,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.506403394225806</v>
+        <v>1.512894276372018</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.30819974856442</v>
@@ -10986,7 +10938,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.26678658208992</v>
+        <v>1.26833498542799</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.468175628416775</v>
@@ -11075,7 +11027,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.267310595096058</v>
+        <v>1.268362749968041</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.468990529554737</v>
@@ -11164,7 +11116,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.274920175857571</v>
+        <v>1.272053059145324</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.462329874392442</v>
@@ -11253,7 +11205,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.477355184804867</v>
+        <v>1.462926246649867</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.834391757232211</v>
@@ -11342,7 +11294,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.576205132746122</v>
+        <v>1.544943731562493</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.659526280772069</v>
@@ -11431,7 +11383,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.570311114264135</v>
+        <v>1.534802259189833</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.884828758506503</v>
@@ -11520,7 +11472,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.561027716270434</v>
+        <v>1.520506162691355</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.154901300059949</v>
@@ -11609,7 +11561,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.563136201517901</v>
+        <v>1.524173855429376</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.000785378157011</v>
@@ -11698,7 +11650,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566563319460075</v>
+        <v>1.525206873084567</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.68842098780385</v>
@@ -11787,7 +11739,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.57389967361384</v>
+        <v>1.530590731343433</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.126669934253085</v>
@@ -11876,7 +11828,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.572660635008165</v>
+        <v>1.527922715950725</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.864583137586138</v>
@@ -11965,7 +11917,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.576938797808115</v>
+        <v>1.529147180725673</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.161113858688341</v>
@@ -12054,7 +12006,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.580384581897227</v>
+        <v>1.536172043448888</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.040530823958023</v>
@@ -12143,7 +12095,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.588513025094574</v>
+        <v>1.543469795792063</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.971048288129302</v>
@@ -12232,7 +12184,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.590474515434284</v>
+        <v>1.546788652973528</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.058372963810478</v>
@@ -12321,7 +12273,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.599115367802276</v>
+        <v>1.552112042974941</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.906253292019243</v>
@@ -12410,7 +12362,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.609314535252452</v>
+        <v>1.561603900159869</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.972086945535466</v>
@@ -12499,7 +12451,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.612823783021293</v>
+        <v>1.569190858142137</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.757829360639167</v>
@@ -12588,7 +12540,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.614706718177487</v>
+        <v>1.564081768557537</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.802464740653829</v>
@@ -12677,7 +12629,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.618224185569606</v>
+        <v>1.565827391351165</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.893003360960453</v>
@@ -12766,7 +12718,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.618424622241701</v>
+        <v>1.569856201307308</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.771628644633743</v>
@@ -12855,7 +12807,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.614791189932119</v>
+        <v>1.570360301354108</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.750315310151255</v>
@@ -12944,7 +12896,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.603319217762877</v>
+        <v>1.560947718388822</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.720412149569908</v>
@@ -13033,7 +12985,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.606806011894079</v>
+        <v>1.568083270361835</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.770905425630249</v>
@@ -13122,7 +13074,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.614932037434555</v>
+        <v>1.573193463202605</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.794874138879871</v>
@@ -13211,7 +13163,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.615024220967717</v>
+        <v>1.576633026127759</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.744149092629251</v>
@@ -13300,7 +13252,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.61647967214935</v>
+        <v>1.578546759264677</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.714354602658531</v>
@@ -13389,7 +13341,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.614365189640677</v>
+        <v>1.577902773938386</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.686070136413304</v>
@@ -13478,7 +13430,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.60690262400849</v>
+        <v>1.574512289757455</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.778512698924759</v>
@@ -13567,7 +13519,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.609065086150874</v>
+        <v>1.579546470208457</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.873811341728754</v>
@@ -13656,7 +13608,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.609480068364358</v>
+        <v>1.581111552112464</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.872098740116347</v>
@@ -13745,7 +13697,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.605830095025959</v>
+        <v>1.5741055214618</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.850086766825962</v>
@@ -13834,7 +13786,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.602261134393002</v>
+        <v>1.568560877086532</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.656243295533854</v>
@@ -13923,7 +13875,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.602415976142661</v>
+        <v>1.573800784390007</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.676293095611445</v>
@@ -14012,7 +13964,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.545371228567753</v>
+        <v>1.541072785653011</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.159591230969943</v>
@@ -14101,7 +14053,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.516831378680831</v>
+        <v>1.525162573061887</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.197733500431636</v>
@@ -14190,7 +14142,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.532858328229142</v>
+        <v>1.541054211678146</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.235909291142753</v>
@@ -14279,7 +14231,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.547794100743167</v>
+        <v>1.555532174772021</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.254130603122397</v>
@@ -14368,7 +14320,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.540709161568167</v>
+        <v>1.552606777594891</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.261045860971602</v>
@@ -14457,7 +14409,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.544532255835713</v>
+        <v>1.560670388363748</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.268173360253617</v>
@@ -14546,7 +14498,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.553102081901666</v>
+        <v>1.572009488016896</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.294941376493081</v>
@@ -14635,7 +14587,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.553009933832502</v>
+        <v>1.569696880020516</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.301168506971243</v>
@@ -14724,7 +14676,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.56711147008794</v>
+        <v>1.585543394700993</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.336985786708958</v>
@@ -14813,7 +14765,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.581219283441184</v>
+        <v>1.607649038444269</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.421569729325364</v>
@@ -14902,7 +14854,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586153186263061</v>
+        <v>1.616832477862848</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.4595618662882</v>
@@ -14991,7 +14943,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591731157011267</v>
+        <v>1.621774438778817</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.44256849855938</v>
@@ -15080,7 +15032,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.597290149660653</v>
+        <v>1.627344309648145</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.518324548415282</v>
@@ -15169,7 +15121,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.5951665903996</v>
+        <v>1.628557630209348</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.52021739602338</v>
@@ -15258,7 +15210,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.606620593422429</v>
+        <v>1.636749354531464</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.482865431069853</v>
@@ -15347,7 +15299,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.672762935980461</v>
+        <v>1.691067690461007</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.362652598220575</v>
@@ -15436,7 +15388,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.71383805356125</v>
+        <v>1.717900621676261</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.919786283963199</v>
@@ -15722,7 +15674,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.523950603620237</v>
+        <v>1.498567845945129</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.130630253776639</v>
@@ -15811,7 +15763,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.524344949476218</v>
+        <v>1.495025989978313</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.123345428134996</v>
@@ -15900,7 +15852,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.519463587347743</v>
+        <v>1.483815941867071</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.066047627745551</v>
@@ -15989,7 +15941,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.506034515804145</v>
+        <v>1.45413056073962</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.940563364957395</v>
@@ -16078,7 +16030,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.573536983259205</v>
+        <v>1.505670830584879</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.828797936132267</v>
@@ -16167,7 +16119,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.571710624854705</v>
+        <v>1.498245555550468</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.670089294486655</v>
@@ -16256,7 +16208,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.574232282599246</v>
+        <v>1.497664102854535</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.742333412259301</v>
@@ -16345,7 +16297,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.577127258654933</v>
+        <v>1.501869692497452</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.283073503526274</v>
@@ -16434,7 +16386,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.577282638744995</v>
+        <v>1.500873201228743</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.452794574582112</v>
@@ -16523,7 +16475,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.581924862333879</v>
+        <v>1.506321955755467</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.367310564159567</v>
@@ -16612,7 +16564,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.581759604920654</v>
+        <v>1.502448985660615</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.814473903371359</v>
@@ -16701,7 +16653,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.580016017450114</v>
+        <v>1.495854335298055</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.814340062981943</v>
@@ -16790,7 +16742,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.576113697672982</v>
+        <v>1.482983609305128</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.30095001308473</v>
@@ -16879,7 +16831,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.579484878883426</v>
+        <v>1.492197029392007</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.479256356301074</v>
@@ -16968,7 +16920,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.589846960868819</v>
+        <v>1.500175311372068</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.435453141852829</v>
@@ -17057,7 +17009,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.597945127615386</v>
+        <v>1.502359863972742</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.376639473874375</v>
@@ -17146,7 +17098,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.591328158902996</v>
+        <v>1.496129210899548</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.491316403459191</v>
@@ -17235,7 +17187,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.594975752728401</v>
+        <v>1.50341701973976</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.51109467490147</v>
@@ -17324,7 +17276,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584119591229411</v>
+        <v>1.489635414043798</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.509578229799507</v>
@@ -17413,7 +17365,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.593791351315858</v>
+        <v>1.504176913350344</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.706168437552841</v>
@@ -17502,7 +17454,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.602291588209897</v>
+        <v>1.512666996578324</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.011415506551073</v>
@@ -17591,7 +17543,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604724324716394</v>
+        <v>1.515248253735563</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.280803427920241</v>
@@ -17680,7 +17632,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.609112708595034</v>
+        <v>1.516862173505553</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.76921756726827</v>
@@ -17769,7 +17721,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.620423344606229</v>
+        <v>1.528898805663025</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.551803646047273</v>
@@ -17858,7 +17810,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.625643037328769</v>
+        <v>1.522244347005516</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.777166154913346</v>
@@ -17947,7 +17899,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.625411366245875</v>
+        <v>1.527111278045343</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.205511064306503</v>
@@ -18036,7 +17988,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.629558036233078</v>
+        <v>1.53541753956724</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.41268728286981</v>
@@ -18125,7 +18077,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.644173502740577</v>
+        <v>1.553230200627099</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.315923302856145</v>
@@ -18214,7 +18166,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.643846001908212</v>
+        <v>1.555027502230104</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.383669608641288</v>
@@ -18303,7 +18255,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.639265296898384</v>
+        <v>1.550187756114529</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.790047408933419</v>
@@ -18392,7 +18344,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.644755768141152</v>
+        <v>1.557576455587784</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.265639198559642</v>
@@ -18481,7 +18433,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.653495575217017</v>
+        <v>1.559678575046739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.781818356139607</v>
@@ -18570,7 +18522,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644006576935437</v>
+        <v>1.556831782754884</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.884028479261344</v>
@@ -18659,7 +18611,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.656612666534167</v>
+        <v>1.56689843314568</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.568786313925449</v>
@@ -18748,7 +18700,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.671540313950794</v>
+        <v>1.598205144386343</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.703928297432646</v>
@@ -18837,7 +18789,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.564377411808473</v>
+        <v>1.520501086621481</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.020701909145127</v>
@@ -18926,7 +18878,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.556700319388419</v>
+        <v>1.522196300266581</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.048320010027619</v>
@@ -19015,7 +18967,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.555715465083009</v>
+        <v>1.521943434203342</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.047072210226353</v>
@@ -19104,7 +19056,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.55223317787331</v>
+        <v>1.522671473528135</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.074762009403832</v>
@@ -19193,7 +19145,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.545386628510976</v>
+        <v>1.522773699520232</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.029079221890628</v>
@@ -19282,7 +19234,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.545727283153871</v>
+        <v>1.526201576590695</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.029126929583694</v>
@@ -19371,7 +19323,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.547602673932569</v>
+        <v>1.529433037394555</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.03707111825122</v>
@@ -19460,7 +19412,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.553388369095118</v>
+        <v>1.536539488555443</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.054727820898612</v>
@@ -19549,7 +19501,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.586944348836304</v>
+        <v>1.569021559339398</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.11473014429872</v>
@@ -19638,7 +19590,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.539882495155546</v>
+        <v>1.537429676734842</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.129896491210962</v>
@@ -19727,7 +19679,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.537947822931769</v>
+        <v>1.536376165920396</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.138131375739885</v>
@@ -19816,7 +19768,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.5430272815963</v>
+        <v>1.547050721680546</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.176260967070671</v>
@@ -19905,7 +19857,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.542886461962921</v>
+        <v>1.539980530971832</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.167005311682524</v>
@@ -19994,7 +19946,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.548675638188652</v>
+        <v>1.548848965571433</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.184743434941311</v>
@@ -20083,7 +20035,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.537591988383737</v>
+        <v>1.528891100161657</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.067117434313138</v>
@@ -20172,7 +20124,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.613927148212395</v>
+        <v>1.588939130510326</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.134292618067295</v>
@@ -20458,7 +20410,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.476715884305621</v>
+        <v>1.452362412010415</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.01612309520302</v>
@@ -20547,7 +20499,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.481702896167719</v>
+        <v>1.453008813612467</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.015262564042578</v>
@@ -20636,7 +20588,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.489805449820946</v>
+        <v>1.458600706171066</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.066467688342048</v>
@@ -20725,7 +20677,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.49398328198398</v>
+        <v>1.438603990710761</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.973525969600909</v>
@@ -20814,7 +20766,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.521763014801983</v>
+        <v>1.458746973938626</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.949155011769219</v>
@@ -20903,7 +20855,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.520971470139008</v>
+        <v>1.457816424487143</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.039934905707784</v>
@@ -20992,7 +20944,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.527494133410426</v>
+        <v>1.459781669817418</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.766906294751256</v>
@@ -21081,7 +21033,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.513438357661413</v>
+        <v>1.445946142062506</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.070742367723121</v>
@@ -21170,7 +21122,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.515445089896399</v>
+        <v>1.449180151623283</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.893366901636075</v>
@@ -21259,7 +21211,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.510195437048539</v>
+        <v>1.442049431560085</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.004921488812381</v>
@@ -21348,7 +21300,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.509363000077864</v>
+        <v>1.441480010701393</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.168744762532588</v>
@@ -21437,7 +21389,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.507977328669894</v>
+        <v>1.436267101511417</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.937559447297117</v>
@@ -21526,7 +21478,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.493839065521664</v>
+        <v>1.427985464716028</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.951085466330078</v>
@@ -21615,7 +21567,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.503506330294691</v>
+        <v>1.436577618605644</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.930789493527388</v>
@@ -21704,7 +21656,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.503992995961284</v>
+        <v>1.430052770858097</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.876473143366201</v>
@@ -21793,7 +21745,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.509279219516156</v>
+        <v>1.434465911095451</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.164880695802414</v>
@@ -21882,7 +21834,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.512356533528707</v>
+        <v>1.439966232653083</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.16127256748421</v>
@@ -21971,7 +21923,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.515603478981074</v>
+        <v>1.434992014438482</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.350039225387593</v>
@@ -22060,7 +22012,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.521308788812963</v>
+        <v>1.441474052161008</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.322191532391804</v>
@@ -22149,7 +22101,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.511208900748066</v>
+        <v>1.43950532606531</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.207462062279895</v>
@@ -22238,7 +22190,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.521109833632672</v>
+        <v>1.451089603774898</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.242900145286868</v>
@@ -22327,7 +22279,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.521888161612849</v>
+        <v>1.448940278232371</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.31081727456352</v>
@@ -22416,7 +22368,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.531981919748582</v>
+        <v>1.460313672116552</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.212243058509088</v>
@@ -22505,7 +22457,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.538898567603006</v>
+        <v>1.467738949334482</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.851253882645878</v>
@@ -22594,7 +22546,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553855663664426</v>
+        <v>1.479680487807474</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.219428164775762</v>
@@ -22683,7 +22635,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570227853819344</v>
+        <v>1.496984362711421</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.911700144855895</v>
@@ -22772,7 +22724,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581499845717157</v>
+        <v>1.507843420318564</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.337826939928242</v>
@@ -22861,7 +22813,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.592192687417151</v>
+        <v>1.518851684168395</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.745745197298048</v>
@@ -22950,7 +22902,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.591367827538873</v>
+        <v>1.520741945134011</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.054396863354146</v>
@@ -23039,7 +22991,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.610765681457071</v>
+        <v>1.542051939580763</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.960867454176797</v>
@@ -23128,7 +23080,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.611195828341186</v>
+        <v>1.550996359448264</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.100705830949455</v>
@@ -23217,7 +23169,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.611663129771281</v>
+        <v>1.552945282749137</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.140270048551234</v>
@@ -23306,7 +23258,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.607897040181865</v>
+        <v>1.554365268267042</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.985106318092367</v>
@@ -23395,7 +23347,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.628918503293777</v>
+        <v>1.565400804213744</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.893315500464005</v>
@@ -23484,7 +23436,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.621114873691616</v>
+        <v>1.564472594534313</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.655430933654553</v>
@@ -23573,7 +23525,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.570756081045482</v>
+        <v>1.528835978202299</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.210290224447081</v>
@@ -23662,7 +23614,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.57760691217464</v>
+        <v>1.534611395330451</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.229155124951907</v>
@@ -23751,7 +23703,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.596510104861554</v>
+        <v>1.548864815313209</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.23057648088519</v>
@@ -23840,7 +23792,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.586469317878312</v>
+        <v>1.541920330830186</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.219767975154227</v>
@@ -23929,7 +23881,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.579163509860935</v>
+        <v>1.536187028274013</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.269934146851963</v>
@@ -24018,7 +23970,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.573035107207172</v>
+        <v>1.529143285997859</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.297504623089381</v>
@@ -24107,7 +24059,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.575156542777777</v>
+        <v>1.533301737813181</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.281165648609377</v>
@@ -24196,7 +24148,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.585897253295634</v>
+        <v>1.536633029906538</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.283893991054216</v>
@@ -24285,7 +24237,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.594504596221847</v>
+        <v>1.555538955146503</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.479449637797341</v>
@@ -24374,7 +24326,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.592568835537962</v>
+        <v>1.559693206062564</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.343655104107627</v>
@@ -24463,7 +24415,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.591446661859485</v>
+        <v>1.55664793693669</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.41983520105545</v>
@@ -24552,7 +24504,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.58824908227777</v>
+        <v>1.553726961065113</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.369362719318008</v>
@@ -24641,7 +24593,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.595371331159217</v>
+        <v>1.552800891687055</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.340258646779087</v>
@@ -24730,7 +24682,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.591793189464962</v>
+        <v>1.554296037600232</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.354768649312901</v>
@@ -24819,7 +24771,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.605370270748778</v>
+        <v>1.55913023431345</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.163066989872856</v>
@@ -24908,7 +24860,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.626194971575658</v>
+        <v>1.575458118056977</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.569656308205498</v>
@@ -25194,7 +25146,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.283961022700228</v>
+        <v>1.26993564942231</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.484322663869763</v>
@@ -25283,7 +25235,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.282732523020433</v>
+        <v>1.266997356178557</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.487419848646279</v>
@@ -25372,7 +25324,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.282863824230236</v>
+        <v>1.266462433098361</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.451163553329036</v>
@@ -25461,7 +25413,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.513266053417428</v>
+        <v>1.47673280549156</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.245890983962588</v>
@@ -25550,7 +25502,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.552354493134743</v>
+        <v>1.512580136055928</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.867084554233515</v>
@@ -25639,7 +25591,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.575740563832571</v>
+        <v>1.537578015314677</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.630510450421123</v>
@@ -25728,7 +25680,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.585974369857186</v>
+        <v>1.547401457818798</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.816220099758212</v>
@@ -25817,7 +25769,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.612498386848455</v>
+        <v>1.561185817120729</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.793986505283081</v>
@@ -25906,7 +25858,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615821917673847</v>
+        <v>1.563852222582979</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.838490470982933</v>
@@ -25995,7 +25947,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.610697632879178</v>
+        <v>1.557925806154058</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.749756741866293</v>
@@ -26084,7 +26036,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.605494563326685</v>
+        <v>1.552751963804623</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.917520369315704</v>
@@ -26173,7 +26125,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.589350760117775</v>
+        <v>1.535138778810679</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.758722378479746</v>
@@ -26262,7 +26214,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.588607702843741</v>
+        <v>1.543232746406335</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.763780830625251</v>
@@ -26351,7 +26303,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.575309595356959</v>
+        <v>1.537273636898526</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.659245588130962</v>
@@ -26440,7 +26392,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.575282211146175</v>
+        <v>1.53303668069711</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.911863716160842</v>
@@ -26529,7 +26481,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.572451559522515</v>
+        <v>1.532919600054548</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.70760785979739</v>
@@ -26618,7 +26570,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.56821324497637</v>
+        <v>1.526138547728299</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.851937165572489</v>
@@ -26707,7 +26659,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.573917682165091</v>
+        <v>1.52603898640767</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.872431271918541</v>
@@ -26796,7 +26748,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.583701912938469</v>
+        <v>1.534373642334019</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.722237015752955</v>
@@ -26885,7 +26837,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.575780415012715</v>
+        <v>1.530854213604394</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.94206561391236</v>
@@ -26974,7 +26926,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.577223508356093</v>
+        <v>1.529796413361415</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.92041308792738</v>
@@ -27063,7 +27015,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.573568163220347</v>
+        <v>1.529882302287092</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.799050630824186</v>
@@ -27152,7 +27104,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.577722858836505</v>
+        <v>1.536589274814452</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.965145213160655</v>
@@ -27241,7 +27193,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.579432330568861</v>
+        <v>1.53741605305881</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.922188809167768</v>
@@ -27330,7 +27282,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.589002627650078</v>
+        <v>1.542344990283165</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.002685453389779</v>
@@ -27419,7 +27371,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.601592191339093</v>
+        <v>1.554068745042231</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.982438466540579</v>
@@ -27508,7 +27460,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.606461499925052</v>
+        <v>1.561112969807076</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.971577093095363</v>
@@ -27597,7 +27549,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620561219688587</v>
+        <v>1.572887851939744</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.077042101976683</v>
@@ -27686,7 +27638,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.646487394261376</v>
+        <v>1.596925302109329</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.764259911618828</v>
@@ -27775,7 +27727,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649517082232255</v>
+        <v>1.600797214123038</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.772522360215643</v>
@@ -27864,7 +27816,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.653335844299496</v>
+        <v>1.601202678454646</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.384387756448712</v>
@@ -27953,7 +27905,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.671776506414682</v>
+        <v>1.620963952952151</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.374040361884204</v>
@@ -28042,7 +27994,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.669030989438744</v>
+        <v>1.629565580467349</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.384776381375994</v>
@@ -28131,7 +28083,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.659786734358393</v>
+        <v>1.624517027829788</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.588451798401238</v>
@@ -28220,7 +28172,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.431380364767863</v>
+        <v>1.408682211019002</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.664625694036124</v>
@@ -28309,7 +28261,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.287431281973431</v>
+        <v>1.286816623099858</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.728235523080937</v>
@@ -28398,7 +28350,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.283717368119742</v>
+        <v>1.285102273320902</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.728398033886291</v>
@@ -28487,7 +28439,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.281648269178524</v>
+        <v>1.280936049102195</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.72061175602398</v>
@@ -28576,7 +28528,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.277904182293289</v>
+        <v>1.275166659763651</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.732416632461099</v>
@@ -28665,7 +28617,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.270755048066526</v>
+        <v>1.271372992192343</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.743611444286161</v>
@@ -28754,7 +28706,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.270180376701944</v>
+        <v>1.27193398435133</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.744449085785199</v>
@@ -28843,7 +28795,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.27749014404414</v>
+        <v>1.278910865393864</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.750948110330301</v>
@@ -28932,7 +28884,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.278330876315354</v>
+        <v>1.278626692105439</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.759766729688107</v>
@@ -29021,7 +28973,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.22697236157931</v>
+        <v>1.226323748044387</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.844598697670707</v>
@@ -29110,7 +29062,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.207218701655921</v>
+        <v>1.213899288615736</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.858081841792462</v>
@@ -29199,7 +29151,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.20783907578572</v>
+        <v>1.217350853480819</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.852025197995047</v>
@@ -29288,7 +29240,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.209455764830507</v>
+        <v>1.219258367606515</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.866145355277858</v>
@@ -29377,7 +29329,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.211577325883321</v>
+        <v>1.221733819771252</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.863682073195934</v>
@@ -29466,7 +29418,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.218206456742051</v>
+        <v>1.226970291330201</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.843131781121106</v>
@@ -29555,7 +29507,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.257189718430878</v>
+        <v>1.274159924550743</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.657402985127191</v>
@@ -29644,7 +29596,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.292567396987657</v>
+        <v>1.299264369681778</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.871509112427729</v>
@@ -29930,7 +29882,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.214277013013247</v>
+        <v>1.200860585665764</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.775680279369922</v>
@@ -30019,7 +29971,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.216287773866042</v>
+        <v>1.199469433586892</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.755580422993911</v>
@@ -30108,7 +30060,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.226634953667143</v>
+        <v>1.204707132150702</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.772022028438177</v>
@@ -30197,7 +30149,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.297324209980337</v>
+        <v>1.251924452834232</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.516284606498338</v>
@@ -30286,7 +30238,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.333440027543808</v>
+        <v>1.298805041454795</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.161258923558186</v>
@@ -30375,7 +30327,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.345392700132445</v>
+        <v>1.306377641065587</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.342364368005501</v>
@@ -30464,7 +30416,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.358172989107847</v>
+        <v>1.318103126749396</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.173350844900105</v>
@@ -30553,7 +30505,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.329534898493728</v>
+        <v>1.29284395708007</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.428663297908279</v>
@@ -30642,7 +30594,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.332135316922706</v>
+        <v>1.296253161584766</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.435519587211775</v>
@@ -30731,7 +30683,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.329660048001052</v>
+        <v>1.286616781203207</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.400516488677417</v>
@@ -30820,7 +30772,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.325264858444982</v>
+        <v>1.286682910571152</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.409059711602702</v>
@@ -30909,7 +30861,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.312487065403281</v>
+        <v>1.270471011858371</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.41049118355425</v>
@@ -30998,7 +30950,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.299129818391895</v>
+        <v>1.260105634899214</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.657437815494352</v>
@@ -31087,7 +31039,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.312833602907497</v>
+        <v>1.273687599627031</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.280939255292033</v>
@@ -31176,7 +31128,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.309462291903755</v>
+        <v>1.271620785025942</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.30382553811352</v>
@@ -31265,7 +31217,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.311171773946824</v>
+        <v>1.278192909210341</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.483964259481937</v>
@@ -31354,7 +31306,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.321602252180045</v>
+        <v>1.287628531631757</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.510126835910842</v>
@@ -31443,7 +31395,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.333324463090126</v>
+        <v>1.29792071457897</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.680091713694185</v>
@@ -31532,7 +31484,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.341090614750421</v>
+        <v>1.302189420767243</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.733395843673909</v>
@@ -31621,7 +31573,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.321922319565706</v>
+        <v>1.287864410044104</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.473382111848581</v>
@@ -31710,7 +31662,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.338298946273641</v>
+        <v>1.305455731698791</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.514699753757498</v>
@@ -31799,7 +31751,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.339350656468117</v>
+        <v>1.304702770056845</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.423259925982616</v>
@@ -31888,7 +31840,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.353674861226312</v>
+        <v>1.31693910638133</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.510975593874686</v>
@@ -31977,7 +31929,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.351040508768649</v>
+        <v>1.317836619286532</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.463152212085576</v>
@@ -32066,7 +32018,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.381143029449014</v>
+        <v>1.348200017840304</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.69930695950453</v>
@@ -32155,7 +32107,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.385530248413656</v>
+        <v>1.352876695951001</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.222108358459724</v>
@@ -32244,7 +32196,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.401743650112659</v>
+        <v>1.369371062718711</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.692167831006142</v>
@@ -32333,7 +32285,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.411858750590115</v>
+        <v>1.380802603413148</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.323224556494193</v>
@@ -32422,7 +32374,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.410691189089818</v>
+        <v>1.377146740514908</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.390239790898262</v>
@@ -32511,7 +32463,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.436603989685277</v>
+        <v>1.401651737461753</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.424350061582921</v>
@@ -32600,7 +32552,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.432989543224381</v>
+        <v>1.398630727384769</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.406858358978923</v>
@@ -32689,7 +32641,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.433454532754673</v>
+        <v>1.397941498201289</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.37962415269897</v>
@@ -32778,7 +32730,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.432832387315824</v>
+        <v>1.3991874197531</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.35980987036303</v>
@@ -32867,7 +32819,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.444185115451034</v>
+        <v>1.40647880288337</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.165602111413653</v>
@@ -32956,7 +32908,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.451859365943383</v>
+        <v>1.421322355422948</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.393909856411943</v>
@@ -33045,7 +32997,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.413075123349674</v>
+        <v>1.390466935359096</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.344178902060157</v>
@@ -33134,7 +33086,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.431602387078486</v>
+        <v>1.409305774882782</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.265541076259881</v>
@@ -33223,7 +33175,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.45080963177571</v>
+        <v>1.427655101034995</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.35783334663819</v>
@@ -33312,7 +33264,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.42566529570838</v>
+        <v>1.403636093488783</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.264816967051861</v>
@@ -33401,7 +33353,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.398581650433661</v>
+        <v>1.376774862675918</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.340322810949129</v>
@@ -33490,7 +33442,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.394382948019323</v>
+        <v>1.371724826590312</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.344762149378514</v>
@@ -33579,7 +33531,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.402637001310269</v>
+        <v>1.378462598363361</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.287395224291598</v>
@@ -33668,7 +33620,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.422479257293511</v>
+        <v>1.403370938757043</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.31124485843133</v>
@@ -33757,7 +33709,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.438084286053026</v>
+        <v>1.421888289265907</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.419747352429907</v>
@@ -33846,7 +33798,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.438580158907492</v>
+        <v>1.425169771582054</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.408524475590246</v>
@@ -33935,7 +33887,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.45952410411549</v>
+        <v>1.449011920412302</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.483852616021199</v>
@@ -34024,7 +33976,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.444467156000758</v>
+        <v>1.436347635460848</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.510130690217506</v>
@@ -34113,7 +34065,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.453430699159254</v>
+        <v>1.443744609160688</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.387808495787521</v>
@@ -34202,7 +34154,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.463804903969456</v>
+        <v>1.452332881922848</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.481822620773471</v>
@@ -34291,7 +34243,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.456476119883583</v>
+        <v>1.436660499923465</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.2928638963437</v>
@@ -34380,7 +34332,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.457184727582351</v>
+        <v>1.435088746404513</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.508019830394023</v>
